--- a/Project_1/Data/Failures_LUfact_for_500_matrices.xlsx
+++ b/Project_1/Data/Failures_LUfact_for_500_matrices.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -795,6 +795,606 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
